--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13A801EE-7EEB-496B-98C5-920FF74649C5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Demographics" sheetId="1" r:id="rId1"/>
+    <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +34,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
+  </si>
+  <si>
+    <t>Table 1:  Demographic profile of sample (n=6735)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>S.D.</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>NativeAmerican</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Parent's Education</t>
+  </si>
+  <si>
+    <t>HS or Less</t>
+  </si>
+  <si>
+    <t>Some College / Trade School</t>
+  </si>
+  <si>
+    <t>College or Higher</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Rural(0)</t>
+  </si>
+  <si>
+    <t>Urban/Suburban(1)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Juvenile Incarceration</t>
+  </si>
+  <si>
+    <t>Adult Incarceration</t>
+  </si>
+  <si>
+    <t>Age @ First Incarceration</t>
+  </si>
+  <si>
+    <t>Months Incarcerated as a Juvenile</t>
+  </si>
+  <si>
+    <t>Months Incarcerated as an Adult</t>
+  </si>
+  <si>
+    <t>US Citizenship</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Divorce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +174,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,10 +204,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,28 +532,884 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1485</v>
+      </c>
+      <c r="D4" s="6">
+        <v>55.6</v>
+      </c>
+      <c r="E4">
+        <v>1857</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1857</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1485</v>
+      </c>
+      <c r="H5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>112</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="G6">
+        <v>52</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>743</v>
+      </c>
+      <c r="D7" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="E7">
+        <v>445</v>
+      </c>
+      <c r="F7" s="6">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>298</v>
+      </c>
+      <c r="H7" s="6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>343</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E8">
+        <v>186</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>157</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>74</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>37</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2039</v>
+      </c>
+      <c r="D11" s="6">
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <v>1111</v>
+      </c>
+      <c r="F11" s="6">
+        <v>59.9</v>
+      </c>
+      <c r="G11">
+        <v>928</v>
+      </c>
+      <c r="H11" s="6">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1891</v>
+      </c>
+      <c r="D12" s="6">
+        <v>86.7</v>
+      </c>
+      <c r="E12">
+        <v>1072</v>
+      </c>
+      <c r="F12" s="6">
+        <v>87.2</v>
+      </c>
+      <c r="G12">
+        <v>819</v>
+      </c>
+      <c r="H12" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>291</v>
+      </c>
+      <c r="D13" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E13">
+        <v>158</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="G13">
+        <v>133</v>
+      </c>
+      <c r="H13" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>1912</v>
+      </c>
+      <c r="D14" s="6">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E14">
+        <v>1048</v>
+      </c>
+      <c r="F14" s="6">
+        <v>73.8</v>
+      </c>
+      <c r="G14">
+        <v>864</v>
+      </c>
+      <c r="H14" s="6">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>592</v>
+      </c>
+      <c r="D15" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="E15">
+        <v>373</v>
+      </c>
+      <c r="F15" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="G15">
+        <v>219</v>
+      </c>
+      <c r="H15" s="6">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E16">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="G16">
+        <v>44</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>3235</v>
+      </c>
+      <c r="D17" s="6">
+        <v>96.9</v>
+      </c>
+      <c r="E17">
+        <v>1795</v>
+      </c>
+      <c r="F17" s="6">
+        <v>96.7</v>
+      </c>
+      <c r="G17">
+        <v>1440</v>
+      </c>
+      <c r="H17" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1298</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="E18">
+        <v>761</v>
+      </c>
+      <c r="F18" s="6">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>537</v>
+      </c>
+      <c r="H18" s="6">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>855</v>
+      </c>
+      <c r="D19" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="E19">
+        <v>431</v>
+      </c>
+      <c r="F19" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="G19">
+        <v>424</v>
+      </c>
+      <c r="H19" s="6">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>831</v>
+      </c>
+      <c r="D20" s="6">
+        <v>27.8</v>
+      </c>
+      <c r="E20">
+        <v>462</v>
+      </c>
+      <c r="F20" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="G20">
+        <v>369</v>
+      </c>
+      <c r="H20" s="6">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1891</v>
+      </c>
+      <c r="D21" s="6">
+        <v>63.1</v>
+      </c>
+      <c r="E21">
+        <v>1053</v>
+      </c>
+      <c r="F21" s="6">
+        <v>63.4</v>
+      </c>
+      <c r="G21">
+        <v>838</v>
+      </c>
+      <c r="H21" s="6">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>1106</v>
+      </c>
+      <c r="D22" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="E22">
+        <v>608</v>
+      </c>
+      <c r="F22" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="G22">
+        <v>498</v>
+      </c>
+      <c r="H22" s="6">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>2441</v>
+      </c>
+      <c r="D23" s="6">
+        <v>81.5</v>
+      </c>
+      <c r="E23">
+        <v>1363</v>
+      </c>
+      <c r="F23" s="6">
+        <v>82.2</v>
+      </c>
+      <c r="G23">
+        <v>1078</v>
+      </c>
+      <c r="H23" s="6">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>555</v>
+      </c>
+      <c r="D24" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E24">
+        <v>296</v>
+      </c>
+      <c r="F24" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="G24">
+        <v>259</v>
+      </c>
+      <c r="H24" s="6">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>984</v>
+      </c>
+      <c r="D25" s="6">
+        <v>29.9</v>
+      </c>
+      <c r="E25">
+        <v>562</v>
+      </c>
+      <c r="F25" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="G25">
+        <v>422</v>
+      </c>
+      <c r="H25" s="6">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>2310</v>
+      </c>
+      <c r="D26" s="6">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E26">
+        <v>1262</v>
+      </c>
+      <c r="F26" s="6">
+        <v>69.2</v>
+      </c>
+      <c r="G26">
+        <v>1048</v>
+      </c>
+      <c r="H26" s="6">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>3181</v>
+      </c>
+      <c r="D27" s="6">
+        <v>95.4</v>
+      </c>
+      <c r="E27">
+        <v>1824</v>
+      </c>
+      <c r="F27" s="6">
+        <v>98.5</v>
+      </c>
+      <c r="G27">
+        <v>1357</v>
+      </c>
+      <c r="H27" s="6">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>152</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G28">
+        <v>124</v>
+      </c>
+      <c r="H28" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>2877</v>
+      </c>
+      <c r="D29" s="6">
+        <v>86.4</v>
+      </c>
+      <c r="E29">
+        <v>1745</v>
+      </c>
+      <c r="F29" s="6">
+        <v>94.1</v>
+      </c>
+      <c r="G29">
+        <v>1132</v>
+      </c>
+      <c r="H29" s="6">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>452</v>
+      </c>
+      <c r="D30" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="E30">
+        <v>109</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="G30">
+        <v>343</v>
+      </c>
+      <c r="H30" s="6">
+        <v>23.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BCDB-2B54-457C-92A9-DEB02B8D5C41}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>15.57</v>
+      </c>
+      <c r="C4">
+        <v>1.58</v>
+      </c>
+      <c r="D4">
+        <v>15.5</v>
+      </c>
+      <c r="E4">
+        <v>1.55</v>
+      </c>
+      <c r="F4">
+        <v>15.7</v>
+      </c>
+      <c r="G4">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>19.13</v>
+      </c>
+      <c r="C5">
+        <v>3.3</v>
+      </c>
+      <c r="D5">
+        <v>19.8</v>
+      </c>
+      <c r="E5">
+        <v>4.72</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>1.34</v>
+      </c>
+      <c r="D6">
+        <v>0.03</v>
+      </c>
+      <c r="E6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>5.72</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>3.18</v>
+      </c>
+      <c r="F7">
+        <v>1.54</v>
+      </c>
+      <c r="G7">
+        <v>7.76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13A801EE-7EEB-496B-98C5-920FF74649C5}"/>
+  <xr:revisionPtr revIDLastSave="618" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6F334A6-EE99-4D34-856D-A7453F926CEA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="28800" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Divorce</t>
+  </si>
+  <si>
+    <t>Twoparenthome</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,28 +1055,28 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23">
-        <v>2441</v>
+        <v>560</v>
       </c>
       <c r="D23" s="6">
-        <v>81.5</v>
+        <v>23.3</v>
       </c>
       <c r="E23">
-        <v>1363</v>
+        <v>316</v>
       </c>
       <c r="F23" s="6">
-        <v>82.2</v>
+        <v>22.8</v>
       </c>
       <c r="G23">
-        <v>1078</v>
+        <v>244</v>
       </c>
       <c r="H23" s="6">
-        <v>80.599999999999994</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,146 +1084,146 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>555</v>
+        <v>1846</v>
       </c>
       <c r="D24" s="6">
-        <v>18.5</v>
+        <v>76.7</v>
       </c>
       <c r="E24">
-        <v>296</v>
+        <v>1068</v>
       </c>
       <c r="F24" s="6">
-        <v>17.8</v>
+        <v>77.2</v>
       </c>
       <c r="G24">
-        <v>259</v>
+        <v>778</v>
       </c>
       <c r="H24" s="6">
-        <v>19.399999999999999</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>984</v>
+        <v>2441</v>
       </c>
       <c r="D25" s="6">
-        <v>29.9</v>
+        <v>81.5</v>
       </c>
       <c r="E25">
-        <v>562</v>
+        <v>1363</v>
       </c>
       <c r="F25" s="6">
-        <v>30.8</v>
+        <v>82.2</v>
       </c>
       <c r="G25">
-        <v>422</v>
+        <v>1078</v>
       </c>
       <c r="H25" s="6">
-        <v>28.7</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>2310</v>
+        <v>555</v>
       </c>
       <c r="D26" s="6">
-        <v>70.099999999999994</v>
+        <v>18.5</v>
       </c>
       <c r="E26">
-        <v>1262</v>
+        <v>296</v>
       </c>
       <c r="F26" s="6">
-        <v>69.2</v>
+        <v>17.8</v>
       </c>
       <c r="G26">
-        <v>1048</v>
+        <v>259</v>
       </c>
       <c r="H26" s="6">
-        <v>71.3</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>3181</v>
+        <v>984</v>
       </c>
       <c r="D27" s="6">
-        <v>95.4</v>
+        <v>29.9</v>
       </c>
       <c r="E27">
-        <v>1824</v>
+        <v>562</v>
       </c>
       <c r="F27" s="6">
-        <v>98.5</v>
+        <v>30.8</v>
       </c>
       <c r="G27">
-        <v>1357</v>
+        <v>422</v>
       </c>
       <c r="H27" s="6">
-        <v>91.6</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>152</v>
+        <v>2310</v>
       </c>
       <c r="D28" s="6">
-        <v>4.5999999999999996</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>1262</v>
       </c>
       <c r="F28" s="6">
-        <v>1.5</v>
+        <v>69.2</v>
       </c>
       <c r="G28">
-        <v>124</v>
+        <v>1048</v>
       </c>
       <c r="H28" s="6">
-        <v>8.4</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>2877</v>
+        <v>3181</v>
       </c>
       <c r="D29" s="6">
-        <v>86.4</v>
+        <v>95.4</v>
       </c>
       <c r="E29">
-        <v>1745</v>
+        <v>1824</v>
       </c>
       <c r="F29" s="6">
-        <v>94.1</v>
+        <v>98.5</v>
       </c>
       <c r="G29">
-        <v>1132</v>
+        <v>1357</v>
       </c>
       <c r="H29" s="6">
-        <v>76.7</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,21 +1231,70 @@
         <v>29</v>
       </c>
       <c r="C30">
+        <v>152</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G30">
+        <v>124</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>2877</v>
+      </c>
+      <c r="D31" s="6">
+        <v>86.4</v>
+      </c>
+      <c r="E31">
+        <v>1745</v>
+      </c>
+      <c r="F31" s="6">
+        <v>94.1</v>
+      </c>
+      <c r="G31">
+        <v>1132</v>
+      </c>
+      <c r="H31" s="6">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
         <v>452</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D32" s="6">
         <v>13.6</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>109</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F32" s="6">
         <v>5.9</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>343</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H32" s="6">
         <v>23.3</v>
       </c>
     </row>

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="618" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6F334A6-EE99-4D34-856D-A7453F926CEA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="28800" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="8640" activeTab="1" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BCDB-2B54-457C-92A9-DEB02B8D5C41}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6F334A6-EE99-4D34-856D-A7453F926CEA}"/>
+  <xr:revisionPtr revIDLastSave="940" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{085C624C-2535-42E9-8A53-EED3D02FC3B5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="8640" activeTab="1" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="10560" yWindow="3555" windowWidth="28800" windowHeight="8640" activeTab="1" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -154,6 +154,60 @@
   </si>
   <si>
     <t>Twoparenthome</t>
+  </si>
+  <si>
+    <t>Employed as an Adult</t>
+  </si>
+  <si>
+    <t>Mother has a Job</t>
+  </si>
+  <si>
+    <t>Father has a Job</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Mother's Hours worked per Week</t>
+  </si>
+  <si>
+    <t>Father's Hours worked per Week</t>
+  </si>
+  <si>
+    <t>Mother regular Overtime</t>
+  </si>
+  <si>
+    <t>Father regular Overtime</t>
+  </si>
+  <si>
+    <t>W1 Grade Level</t>
+  </si>
+  <si>
+    <t>W1 Grade</t>
+  </si>
+  <si>
+    <t>Middle School</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>W2 Grade</t>
+  </si>
+  <si>
+    <t>Beyond High School</t>
+  </si>
+  <si>
+    <t>W2 Grade Level</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>High School Dropout</t>
+  </si>
+  <si>
+    <t>Middle School Dropout</t>
   </si>
 </sst>
 </file>
@@ -207,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,6 +275,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,28 +1264,28 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>3181</v>
+        <v>884</v>
       </c>
       <c r="D29" s="6">
-        <v>95.4</v>
+        <v>26.5</v>
       </c>
       <c r="E29">
-        <v>1824</v>
+        <v>530</v>
       </c>
       <c r="F29" s="6">
-        <v>98.5</v>
+        <v>28.6</v>
       </c>
       <c r="G29">
-        <v>1357</v>
+        <v>354</v>
       </c>
       <c r="H29" s="6">
-        <v>91.6</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,48 +1293,48 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>152</v>
+        <v>2453</v>
       </c>
       <c r="D30" s="6">
-        <v>4.5999999999999996</v>
+        <v>73.5</v>
       </c>
       <c r="E30">
-        <v>28</v>
+        <v>1324</v>
       </c>
       <c r="F30" s="6">
-        <v>1.5</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="G30">
-        <v>124</v>
+        <v>1129</v>
       </c>
       <c r="H30" s="6">
-        <v>8.4</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>2877</v>
+        <v>462</v>
       </c>
       <c r="D31" s="6">
-        <v>86.4</v>
+        <v>14.5</v>
       </c>
       <c r="E31">
-        <v>1745</v>
+        <v>275</v>
       </c>
       <c r="F31" s="6">
-        <v>94.1</v>
+        <v>15.4</v>
       </c>
       <c r="G31">
-        <v>1132</v>
+        <v>187</v>
       </c>
       <c r="H31" s="6">
-        <v>76.7</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1280,21 +1342,888 @@
         <v>29</v>
       </c>
       <c r="C32">
+        <v>2729</v>
+      </c>
+      <c r="D32" s="6">
+        <v>85.5</v>
+      </c>
+      <c r="E32">
+        <v>1513</v>
+      </c>
+      <c r="F32" s="6">
+        <v>84.6</v>
+      </c>
+      <c r="G32">
+        <v>1216</v>
+      </c>
+      <c r="H32" s="6">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>105</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="E33">
+        <v>55</v>
+      </c>
+      <c r="F33" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>2328</v>
+      </c>
+      <c r="D34" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="E34">
+        <v>1272</v>
+      </c>
+      <c r="F34" s="6">
+        <v>95.9</v>
+      </c>
+      <c r="G34">
+        <v>1056</v>
+      </c>
+      <c r="H34" s="6">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="6">
+        <v>80.2</v>
+      </c>
+      <c r="E35">
+        <v>1105</v>
+      </c>
+      <c r="F35" s="6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G35">
+        <v>895</v>
+      </c>
+      <c r="H35" s="6">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>493</v>
+      </c>
+      <c r="D36" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="E36">
+        <v>270</v>
+      </c>
+      <c r="F36" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G36">
+        <v>223</v>
+      </c>
+      <c r="H36" s="6">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>1282</v>
+      </c>
+      <c r="D37" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="E37">
+        <v>711</v>
+      </c>
+      <c r="F37" s="6">
+        <v>57.4</v>
+      </c>
+      <c r="G37">
+        <v>571</v>
+      </c>
+      <c r="H37" s="6">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>990</v>
+      </c>
+      <c r="D38" s="6">
+        <v>43.6</v>
+      </c>
+      <c r="E38">
+        <v>527</v>
+      </c>
+      <c r="F38" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="G38">
+        <v>463</v>
+      </c>
+      <c r="H38" s="6">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>3118</v>
+      </c>
+      <c r="D39" s="6">
+        <v>99.1</v>
+      </c>
+      <c r="E39">
+        <v>1726</v>
+      </c>
+      <c r="F39" s="6">
+        <v>99.3</v>
+      </c>
+      <c r="G39">
+        <v>1392</v>
+      </c>
+      <c r="H39" s="6">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>28</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="9">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>616</v>
+      </c>
+      <c r="D41" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="E41">
+        <v>353</v>
+      </c>
+      <c r="F41" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G41">
+        <v>263</v>
+      </c>
+      <c r="H41" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>623</v>
+      </c>
+      <c r="D42" s="6">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>356</v>
+      </c>
+      <c r="F42" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G42">
+        <v>267</v>
+      </c>
+      <c r="H42" s="6">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>656</v>
+      </c>
+      <c r="D43" s="6">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>364</v>
+      </c>
+      <c r="F43" s="6">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>292</v>
+      </c>
+      <c r="H43" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>655</v>
+      </c>
+      <c r="D44" s="6">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>364</v>
+      </c>
+      <c r="F44" s="6">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>291</v>
+      </c>
+      <c r="H44" s="6">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>657</v>
+      </c>
+      <c r="D45" s="6">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>342</v>
+      </c>
+      <c r="F45" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="G45">
+        <v>315</v>
+      </c>
+      <c r="H45" s="6">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="9">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>73</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="F46" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G46">
+        <v>32</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>2041</v>
+      </c>
+      <c r="D47" s="6">
+        <v>62.2</v>
+      </c>
+      <c r="E47">
+        <v>1111</v>
+      </c>
+      <c r="F47" s="6">
+        <v>61</v>
+      </c>
+      <c r="G47">
+        <v>930</v>
+      </c>
+      <c r="H47" s="6">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>1239</v>
+      </c>
+      <c r="D48" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E48">
+        <v>709</v>
+      </c>
+      <c r="F48" s="6">
+        <v>39</v>
+      </c>
+      <c r="G48">
+        <v>530</v>
+      </c>
+      <c r="H48" s="6">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="9">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>595</v>
+      </c>
+      <c r="D50" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E50">
+        <v>348</v>
+      </c>
+      <c r="F50" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="G50">
+        <v>247</v>
+      </c>
+      <c r="H50" s="6">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>636</v>
+      </c>
+      <c r="D51" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="E51">
+        <v>361</v>
+      </c>
+      <c r="F51" s="6">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>275</v>
+      </c>
+      <c r="H51" s="6">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="9">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>599</v>
+      </c>
+      <c r="D52" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E52">
+        <v>334</v>
+      </c>
+      <c r="F52" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="G52">
+        <v>265</v>
+      </c>
+      <c r="H52" s="6">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>610</v>
+      </c>
+      <c r="D53" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="E53">
+        <v>340</v>
+      </c>
+      <c r="F53" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="G53">
+        <v>270</v>
+      </c>
+      <c r="H53" s="6">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E54">
+        <v>297</v>
+      </c>
+      <c r="F54" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="G54">
+        <v>275</v>
+      </c>
+      <c r="H54" s="6">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E55">
+        <v>29</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E56">
+        <v>29</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="G56">
+        <v>16</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57">
+        <v>2417</v>
+      </c>
+      <c r="D57" s="6">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E57">
+        <v>1332</v>
+      </c>
+      <c r="F57" s="6">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G57">
+        <v>1085</v>
+      </c>
+      <c r="H57" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>612</v>
+      </c>
+      <c r="D58" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E58">
+        <v>356</v>
+      </c>
+      <c r="F58" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="G58">
+        <v>256</v>
+      </c>
+      <c r="H58" s="6">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="10">
+        <v>3217</v>
+      </c>
+      <c r="D59" s="12">
+        <v>96.7</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1782</v>
+      </c>
+      <c r="F59" s="12">
+        <v>96.4</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1435</v>
+      </c>
+      <c r="H59" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="10">
+        <v>110</v>
+      </c>
+      <c r="D60" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="E60" s="10">
+        <v>66</v>
+      </c>
+      <c r="F60" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="G60" s="10">
+        <v>44</v>
+      </c>
+      <c r="H60" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="10">
+        <v>3330</v>
+      </c>
+      <c r="D61" s="12">
+        <v>99.6</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1850</v>
+      </c>
+      <c r="F61" s="12">
+        <v>99.6</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1480</v>
+      </c>
+      <c r="H61" s="12">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="10">
+        <v>12</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E62" s="10">
+        <v>7</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G62" s="10">
+        <v>5</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="10">
+        <v>3265</v>
+      </c>
+      <c r="D63" s="12">
+        <v>97.7</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1811</v>
+      </c>
+      <c r="F63" s="12">
+        <v>97.5</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1454</v>
+      </c>
+      <c r="H63" s="12">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="10">
+        <v>77</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E64" s="10">
+        <v>46</v>
+      </c>
+      <c r="F64" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G64" s="10">
+        <v>31</v>
+      </c>
+      <c r="H64" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>3181</v>
+      </c>
+      <c r="D65" s="6">
+        <v>95.4</v>
+      </c>
+      <c r="E65">
+        <v>1824</v>
+      </c>
+      <c r="F65" s="6">
+        <v>98.5</v>
+      </c>
+      <c r="G65">
+        <v>1357</v>
+      </c>
+      <c r="H65" s="6">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>152</v>
+      </c>
+      <c r="D66" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E66">
+        <v>28</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G66">
+        <v>124</v>
+      </c>
+      <c r="H66" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>2877</v>
+      </c>
+      <c r="D67" s="6">
+        <v>86.4</v>
+      </c>
+      <c r="E67">
+        <v>1745</v>
+      </c>
+      <c r="F67" s="6">
+        <v>94.1</v>
+      </c>
+      <c r="G67">
+        <v>1132</v>
+      </c>
+      <c r="H67" s="6">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68">
         <v>452</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D68" s="6">
         <v>13.6</v>
       </c>
-      <c r="E32">
+      <c r="E68">
         <v>109</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F68" s="6">
         <v>5.9</v>
       </c>
-      <c r="G32">
+      <c r="G68">
         <v>343</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H68" s="6">
         <v>23.3</v>
       </c>
     </row>
@@ -1310,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BCDB-2B54-457C-92A9-DEB02B8D5C41}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,6 +2386,52 @@
         <v>7.76</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C8">
+        <v>12.6</v>
+      </c>
+      <c r="D8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E8">
+        <v>13.2</v>
+      </c>
+      <c r="F8">
+        <v>36.9</v>
+      </c>
+      <c r="G8">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>44.9</v>
+      </c>
+      <c r="C9">
+        <v>11.51</v>
+      </c>
+      <c r="D9">
+        <v>45.1</v>
+      </c>
+      <c r="E9">
+        <v>11.9</v>
+      </c>
+      <c r="F9">
+        <v>44.7</v>
+      </c>
+      <c r="G9">
+        <v>11.1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="940" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{085C624C-2535-42E9-8A53-EED3D02FC3B5}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7A70FE2-77CB-49C2-B16A-938545183B16}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="3555" windowWidth="28800" windowHeight="8640" activeTab="1" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="21165" yWindow="2340" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Middle School Dropout</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>Death</t>
   </si>
 </sst>
 </file>
@@ -270,12 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -283,6 +286,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,18 +627,18 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1560,7 +1569,7 @@
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>7</v>
       </c>
       <c r="C41">
@@ -1583,7 +1592,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>8</v>
       </c>
       <c r="C42">
@@ -1606,7 +1615,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
+      <c r="B43" s="7">
         <v>9</v>
       </c>
       <c r="C43">
@@ -1629,7 +1638,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="9">
+      <c r="B44" s="7">
         <v>10</v>
       </c>
       <c r="C44">
@@ -1652,7 +1661,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>11</v>
       </c>
       <c r="C45">
@@ -1675,7 +1684,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="9">
+      <c r="B46" s="7">
         <v>12</v>
       </c>
       <c r="C46">
@@ -1701,7 +1710,7 @@
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C47">
@@ -1724,7 +1733,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C48">
@@ -1750,7 +1759,7 @@
       <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="7">
         <v>7</v>
       </c>
       <c r="C49">
@@ -1773,7 +1782,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="9">
+      <c r="B50" s="7">
         <v>8</v>
       </c>
       <c r="C50">
@@ -1796,7 +1805,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="9">
+      <c r="B51" s="7">
         <v>9</v>
       </c>
       <c r="C51">
@@ -1819,7 +1828,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="9">
+      <c r="B52" s="7">
         <v>10</v>
       </c>
       <c r="C52">
@@ -1842,7 +1851,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="9">
+      <c r="B53" s="7">
         <v>11</v>
       </c>
       <c r="C53">
@@ -1865,7 +1874,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="9">
+      <c r="B54" s="7">
         <v>12</v>
       </c>
       <c r="C54">
@@ -1888,7 +1897,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C55">
@@ -1914,7 +1923,7 @@
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C56">
@@ -1937,7 +1946,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C57">
@@ -1960,7 +1969,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C58">
@@ -1982,248 +1991,438 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>3217</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="10">
         <v>96.7</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>1782</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="10">
         <v>96.4</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="8">
         <v>1435</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="8">
         <v>110</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="10">
         <v>3.3</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="8">
         <v>66</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="10">
         <v>3.6</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="8">
         <v>44</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="8">
         <v>3330</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="10">
         <v>99.6</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="8">
         <v>1850</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="10">
         <v>99.6</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="8">
         <v>1480</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="10">
         <v>99.7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="8">
         <v>12</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="10">
         <v>0.4</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="8">
         <v>7</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="10">
         <v>0.4</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="8">
         <v>5</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="10">
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="8">
         <v>3265</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="10">
         <v>97.7</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="8">
         <v>1811</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="10">
         <v>97.5</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="8">
         <v>1454</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="10">
         <v>97.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="8">
         <v>77</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="8">
         <v>46</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="10">
         <v>2.5</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="8">
         <v>31</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="10">
         <v>2.1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8">
+        <v>11</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="8">
+        <v>4</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G65" s="8">
+        <v>7</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="9">
+        <v>2</v>
+      </c>
+      <c r="C66" s="8">
+        <v>113</v>
+      </c>
+      <c r="D66" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E66" s="8">
+        <v>63</v>
+      </c>
+      <c r="F66" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G66" s="8">
+        <v>50</v>
+      </c>
+      <c r="H66" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8">
+        <v>430</v>
+      </c>
+      <c r="D67" s="10">
+        <v>17.7</v>
+      </c>
+      <c r="E67" s="8">
+        <v>250</v>
+      </c>
+      <c r="F67" s="10">
+        <v>18</v>
+      </c>
+      <c r="G67" s="8">
+        <v>180</v>
+      </c>
+      <c r="H67" s="10">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="9">
+        <v>4</v>
+      </c>
+      <c r="C68" s="8">
+        <v>862</v>
+      </c>
+      <c r="D68" s="10">
+        <v>35.4</v>
+      </c>
+      <c r="E68" s="8">
+        <v>479</v>
+      </c>
+      <c r="F68" s="10">
+        <v>34.4</v>
+      </c>
+      <c r="G68" s="8">
+        <v>383</v>
+      </c>
+      <c r="H68" s="10">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="9">
+        <v>5</v>
+      </c>
+      <c r="C69" s="8">
+        <v>593</v>
+      </c>
+      <c r="D69" s="10">
+        <v>24.3</v>
+      </c>
+      <c r="E69" s="8">
+        <v>336</v>
+      </c>
+      <c r="F69" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="G69" s="8">
+        <v>257</v>
+      </c>
+      <c r="H69" s="10">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="8">
+        <v>427</v>
+      </c>
+      <c r="D70" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="E70" s="8">
+        <v>260</v>
+      </c>
+      <c r="F70" s="10">
+        <v>18.7</v>
+      </c>
+      <c r="G70" s="8">
+        <v>167</v>
+      </c>
+      <c r="H70" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="8">
+        <v>3202</v>
+      </c>
+      <c r="D71" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1772</v>
+      </c>
+      <c r="F71" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1430</v>
+      </c>
+      <c r="H71" s="10">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="8">
+        <v>139</v>
+      </c>
+      <c r="D72" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="E72" s="8">
+        <v>84</v>
+      </c>
+      <c r="F72" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G72" s="8">
+        <v>55</v>
+      </c>
+      <c r="H72" s="10">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>31</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B73" t="s">
         <v>30</v>
       </c>
-      <c r="C65">
+      <c r="C73">
         <v>3181</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D73" s="6">
         <v>95.4</v>
       </c>
-      <c r="E65">
+      <c r="E73">
         <v>1824</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F73" s="6">
         <v>98.5</v>
       </c>
-      <c r="G65">
+      <c r="G73">
         <v>1357</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H73" s="6">
         <v>91.6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>29</v>
       </c>
-      <c r="C66">
+      <c r="C74">
         <v>152</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D74" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E66">
+      <c r="E74">
         <v>28</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F74" s="6">
         <v>1.5</v>
       </c>
-      <c r="G66">
+      <c r="G74">
         <v>124</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H74" s="6">
         <v>8.4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>32</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B75" t="s">
         <v>30</v>
       </c>
-      <c r="C67">
+      <c r="C75">
         <v>2877</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D75" s="6">
         <v>86.4</v>
       </c>
-      <c r="E67">
+      <c r="E75">
         <v>1745</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F75" s="6">
         <v>94.1</v>
       </c>
-      <c r="G67">
+      <c r="G75">
         <v>1132</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H75" s="6">
         <v>76.7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>29</v>
       </c>
-      <c r="C68">
+      <c r="C76">
         <v>452</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D76" s="6">
         <v>13.6</v>
       </c>
-      <c r="E68">
+      <c r="E76">
         <v>109</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F76" s="6">
         <v>5.9</v>
       </c>
-      <c r="G68">
+      <c r="G76">
         <v>343</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H76" s="6">
         <v>23.3</v>
       </c>
     </row>
@@ -2241,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BCDB-2B54-457C-92A9-DEB02B8D5C41}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,18 +2457,18 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1000" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7A70FE2-77CB-49C2-B16A-938545183B16}"/>
+  <xr:revisionPtr revIDLastSave="1035" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F20FEB00-C69E-4977-AF07-5102DA3878F4}"/>
   <bookViews>
-    <workbookView xWindow="21165" yWindow="2340" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="21030" yWindow="7305" windowWidth="14310" windowHeight="8640" activeTab="1" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Asian</t>
   </si>
   <si>
-    <t>NativeAmerican</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>Death</t>
+  </si>
+  <si>
+    <t>Highest Grade Completed - Uncapped</t>
+  </si>
+  <si>
+    <t>Highest Grade Completed - Capped</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,244 +793,244 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H9" s="6">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
+        <v>2039</v>
+      </c>
+      <c r="D10" s="6">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>1111</v>
+      </c>
+      <c r="F10" s="6">
+        <v>59.9</v>
+      </c>
+      <c r="G10">
+        <v>928</v>
+      </c>
+      <c r="H10" s="6">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E10">
+      <c r="C11">
+        <v>1891</v>
+      </c>
+      <c r="D11" s="6">
+        <v>86.7</v>
+      </c>
+      <c r="E11">
+        <v>1072</v>
+      </c>
+      <c r="F11" s="6">
+        <v>87.2</v>
+      </c>
+      <c r="G11">
+        <v>819</v>
+      </c>
+      <c r="H11" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>291</v>
+      </c>
+      <c r="D12" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E12">
+        <v>158</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="G12">
+        <v>133</v>
+      </c>
+      <c r="H12" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>2039</v>
-      </c>
-      <c r="D11" s="6">
-        <v>61</v>
-      </c>
-      <c r="E11">
-        <v>1111</v>
-      </c>
-      <c r="F11" s="6">
-        <v>59.9</v>
-      </c>
-      <c r="G11">
-        <v>928</v>
-      </c>
-      <c r="H11" s="6">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>1891</v>
-      </c>
-      <c r="D12" s="6">
-        <v>86.7</v>
-      </c>
-      <c r="E12">
-        <v>1072</v>
-      </c>
-      <c r="F12" s="6">
-        <v>87.2</v>
-      </c>
-      <c r="G12">
-        <v>819</v>
-      </c>
-      <c r="H12" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13">
-        <v>291</v>
+        <v>1912</v>
       </c>
       <c r="D13" s="6">
-        <v>13.3</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E13">
-        <v>158</v>
+        <v>1048</v>
       </c>
       <c r="F13" s="6">
-        <v>12.8</v>
+        <v>73.8</v>
       </c>
       <c r="G13">
-        <v>133</v>
+        <v>864</v>
       </c>
       <c r="H13" s="6">
-        <v>14</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>1912</v>
+        <v>592</v>
       </c>
       <c r="D14" s="6">
-        <v>76.400000000000006</v>
+        <v>23.6</v>
       </c>
       <c r="E14">
-        <v>1048</v>
+        <v>373</v>
       </c>
       <c r="F14" s="6">
-        <v>73.8</v>
+        <v>26.2</v>
       </c>
       <c r="G14">
-        <v>864</v>
+        <v>219</v>
       </c>
       <c r="H14" s="6">
-        <v>79.8</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
-        <v>592</v>
+        <v>105</v>
       </c>
       <c r="D15" s="6">
-        <v>23.6</v>
+        <v>3.1</v>
       </c>
       <c r="E15">
-        <v>373</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6">
-        <v>26.2</v>
+        <v>3.3</v>
       </c>
       <c r="G15">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="H15" s="6">
-        <v>20.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>105</v>
+        <v>3235</v>
       </c>
       <c r="D16" s="6">
-        <v>3.1</v>
+        <v>96.9</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>1795</v>
       </c>
       <c r="F16" s="6">
-        <v>3.3</v>
+        <v>96.7</v>
       </c>
       <c r="G16">
-        <v>44</v>
+        <v>1440</v>
       </c>
       <c r="H16" s="6">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>3235</v>
+        <v>1298</v>
       </c>
       <c r="D17" s="6">
-        <v>96.9</v>
+        <v>43.5</v>
       </c>
       <c r="E17">
-        <v>1795</v>
+        <v>761</v>
       </c>
       <c r="F17" s="6">
-        <v>96.7</v>
+        <v>46</v>
       </c>
       <c r="G17">
-        <v>1440</v>
+        <v>537</v>
       </c>
       <c r="H17" s="6">
-        <v>97</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>1298</v>
+        <v>855</v>
       </c>
       <c r="D18" s="6">
-        <v>43.5</v>
+        <v>28.7</v>
       </c>
       <c r="E18">
-        <v>761</v>
+        <v>431</v>
       </c>
       <c r="F18" s="6">
-        <v>46</v>
+        <v>26.1</v>
       </c>
       <c r="G18">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="H18" s="6">
-        <v>40.4</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,592 +1038,592 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="D19" s="6">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="E19">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="F19" s="6">
-        <v>26.1</v>
+        <v>27.9</v>
       </c>
       <c r="G19">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="H19" s="6">
-        <v>31.9</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>831</v>
+        <v>1891</v>
       </c>
       <c r="D20" s="6">
-        <v>27.8</v>
+        <v>63.1</v>
       </c>
       <c r="E20">
-        <v>462</v>
+        <v>1053</v>
       </c>
       <c r="F20" s="6">
-        <v>27.9</v>
+        <v>63.4</v>
       </c>
       <c r="G20">
-        <v>369</v>
+        <v>838</v>
       </c>
       <c r="H20" s="6">
-        <v>27.7</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>1891</v>
+        <v>1106</v>
       </c>
       <c r="D21" s="6">
-        <v>63.1</v>
+        <v>36.9</v>
       </c>
       <c r="E21">
-        <v>1053</v>
+        <v>608</v>
       </c>
       <c r="F21" s="6">
-        <v>63.4</v>
+        <v>36.6</v>
       </c>
       <c r="G21">
-        <v>838</v>
+        <v>498</v>
       </c>
       <c r="H21" s="6">
-        <v>62.7</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22">
-        <v>1106</v>
+        <v>560</v>
       </c>
       <c r="D22" s="6">
-        <v>36.9</v>
+        <v>23.3</v>
       </c>
       <c r="E22">
-        <v>608</v>
+        <v>316</v>
       </c>
       <c r="F22" s="6">
-        <v>36.6</v>
+        <v>22.8</v>
       </c>
       <c r="G22">
-        <v>498</v>
+        <v>244</v>
       </c>
       <c r="H22" s="6">
-        <v>37.299999999999997</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>560</v>
+        <v>1846</v>
       </c>
       <c r="D23" s="6">
-        <v>23.3</v>
+        <v>76.7</v>
       </c>
       <c r="E23">
-        <v>316</v>
+        <v>1068</v>
       </c>
       <c r="F23" s="6">
-        <v>22.8</v>
+        <v>77.2</v>
       </c>
       <c r="G23">
-        <v>244</v>
+        <v>778</v>
       </c>
       <c r="H23" s="6">
-        <v>23.9</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>1846</v>
+        <v>2441</v>
       </c>
       <c r="D24" s="6">
-        <v>76.7</v>
+        <v>81.5</v>
       </c>
       <c r="E24">
-        <v>1068</v>
+        <v>1363</v>
       </c>
       <c r="F24" s="6">
-        <v>77.2</v>
+        <v>82.2</v>
       </c>
       <c r="G24">
-        <v>778</v>
+        <v>1078</v>
       </c>
       <c r="H24" s="6">
-        <v>76.099999999999994</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>2441</v>
+        <v>555</v>
       </c>
       <c r="D25" s="6">
-        <v>81.5</v>
+        <v>18.5</v>
       </c>
       <c r="E25">
-        <v>1363</v>
+        <v>296</v>
       </c>
       <c r="F25" s="6">
-        <v>82.2</v>
+        <v>17.8</v>
       </c>
       <c r="G25">
-        <v>1078</v>
+        <v>259</v>
       </c>
       <c r="H25" s="6">
-        <v>80.599999999999994</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>555</v>
+        <v>984</v>
       </c>
       <c r="D26" s="6">
-        <v>18.5</v>
+        <v>29.9</v>
       </c>
       <c r="E26">
-        <v>296</v>
+        <v>562</v>
       </c>
       <c r="F26" s="6">
-        <v>17.8</v>
+        <v>30.8</v>
       </c>
       <c r="G26">
-        <v>259</v>
+        <v>422</v>
       </c>
       <c r="H26" s="6">
-        <v>19.399999999999999</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>984</v>
+        <v>2310</v>
       </c>
       <c r="D27" s="6">
-        <v>29.9</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="E27">
-        <v>562</v>
+        <v>1262</v>
       </c>
       <c r="F27" s="6">
-        <v>30.8</v>
+        <v>69.2</v>
       </c>
       <c r="G27">
-        <v>422</v>
+        <v>1048</v>
       </c>
       <c r="H27" s="6">
-        <v>28.7</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
       <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>884</v>
+      </c>
+      <c r="D28" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="E28">
+        <v>530</v>
+      </c>
+      <c r="F28" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="G28">
+        <v>354</v>
+      </c>
+      <c r="H28" s="6">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
-        <v>2310</v>
-      </c>
-      <c r="D28" s="6">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="E28">
-        <v>1262</v>
-      </c>
-      <c r="F28" s="6">
-        <v>69.2</v>
-      </c>
-      <c r="G28">
-        <v>1048</v>
-      </c>
-      <c r="H28" s="6">
-        <v>71.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>2453</v>
+      </c>
+      <c r="D29" s="6">
+        <v>73.5</v>
+      </c>
+      <c r="E29">
+        <v>1324</v>
+      </c>
+      <c r="F29" s="6">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G29">
+        <v>1129</v>
+      </c>
+      <c r="H29" s="6">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>884</v>
-      </c>
-      <c r="D29" s="6">
-        <v>26.5</v>
-      </c>
-      <c r="E29">
-        <v>530</v>
-      </c>
-      <c r="F29" s="6">
-        <v>28.6</v>
-      </c>
-      <c r="G29">
-        <v>354</v>
-      </c>
-      <c r="H29" s="6">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>2453</v>
+        <v>462</v>
       </c>
       <c r="D30" s="6">
-        <v>73.5</v>
+        <v>14.5</v>
       </c>
       <c r="E30">
-        <v>1324</v>
+        <v>275</v>
       </c>
       <c r="F30" s="6">
-        <v>71.400000000000006</v>
+        <v>15.4</v>
       </c>
       <c r="G30">
-        <v>1129</v>
+        <v>187</v>
       </c>
       <c r="H30" s="6">
-        <v>76.099999999999994</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>2729</v>
+      </c>
+      <c r="D31" s="6">
+        <v>85.5</v>
+      </c>
+      <c r="E31">
+        <v>1513</v>
+      </c>
+      <c r="F31" s="6">
+        <v>84.6</v>
+      </c>
+      <c r="G31">
+        <v>1216</v>
+      </c>
+      <c r="H31" s="6">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>462</v>
-      </c>
-      <c r="D31" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="E31">
-        <v>275</v>
-      </c>
-      <c r="F31" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="G31">
-        <v>187</v>
-      </c>
-      <c r="H31" s="6">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32">
-        <v>2729</v>
+        <v>105</v>
       </c>
       <c r="D32" s="6">
-        <v>85.5</v>
+        <v>4.3</v>
       </c>
       <c r="E32">
-        <v>1513</v>
+        <v>55</v>
       </c>
       <c r="F32" s="6">
-        <v>84.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G32">
-        <v>1216</v>
+        <v>50</v>
       </c>
       <c r="H32" s="6">
-        <v>86.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>105</v>
+        <v>2328</v>
       </c>
       <c r="D33" s="6">
-        <v>4.3</v>
+        <v>95.7</v>
       </c>
       <c r="E33">
-        <v>55</v>
+        <v>1272</v>
       </c>
       <c r="F33" s="6">
-        <v>4.0999999999999996</v>
+        <v>95.9</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>1056</v>
       </c>
       <c r="H33" s="6">
-        <v>4.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34">
-        <v>2328</v>
+        <v>2000</v>
       </c>
       <c r="D34" s="6">
-        <v>95.7</v>
+        <v>80.2</v>
       </c>
       <c r="E34">
-        <v>1272</v>
+        <v>1105</v>
       </c>
       <c r="F34" s="6">
-        <v>95.9</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G34">
-        <v>1056</v>
+        <v>895</v>
       </c>
       <c r="H34" s="6">
-        <v>95.5</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>493</v>
+      </c>
+      <c r="D35" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="E35">
+        <v>270</v>
+      </c>
+      <c r="F35" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G35">
+        <v>223</v>
+      </c>
+      <c r="H35" s="6">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35">
-        <v>2000</v>
-      </c>
-      <c r="D35" s="6">
-        <v>80.2</v>
-      </c>
-      <c r="E35">
-        <v>1105</v>
-      </c>
-      <c r="F35" s="6">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="G35">
-        <v>895</v>
-      </c>
-      <c r="H35" s="6">
-        <v>80.099999999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36">
-        <v>493</v>
+        <v>1282</v>
       </c>
       <c r="D36" s="6">
-        <v>19.8</v>
+        <v>56.4</v>
       </c>
       <c r="E36">
-        <v>270</v>
+        <v>711</v>
       </c>
       <c r="F36" s="6">
-        <v>19.600000000000001</v>
+        <v>57.4</v>
       </c>
       <c r="G36">
-        <v>223</v>
+        <v>571</v>
       </c>
       <c r="H36" s="6">
-        <v>19.899999999999999</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>1282</v>
+        <v>990</v>
       </c>
       <c r="D37" s="6">
-        <v>56.4</v>
+        <v>43.6</v>
       </c>
       <c r="E37">
-        <v>711</v>
+        <v>527</v>
       </c>
       <c r="F37" s="6">
-        <v>57.4</v>
+        <v>42.6</v>
       </c>
       <c r="G37">
-        <v>571</v>
+        <v>463</v>
       </c>
       <c r="H37" s="6">
-        <v>55.2</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38">
-        <v>990</v>
+        <v>3118</v>
       </c>
       <c r="D38" s="6">
-        <v>43.6</v>
+        <v>99.1</v>
       </c>
       <c r="E38">
-        <v>527</v>
+        <v>1726</v>
       </c>
       <c r="F38" s="6">
-        <v>42.6</v>
+        <v>99.3</v>
       </c>
       <c r="G38">
-        <v>463</v>
+        <v>1392</v>
       </c>
       <c r="H38" s="6">
-        <v>44.8</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39">
-        <v>3118</v>
+        <v>28</v>
       </c>
       <c r="D39" s="6">
-        <v>99.1</v>
+        <v>0.9</v>
       </c>
       <c r="E39">
-        <v>1726</v>
+        <v>12</v>
       </c>
       <c r="F39" s="6">
-        <v>99.3</v>
+        <v>0.7</v>
       </c>
       <c r="G39">
-        <v>1392</v>
+        <v>16</v>
       </c>
       <c r="H39" s="6">
-        <v>98.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>29</v>
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="7">
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>616</v>
       </c>
       <c r="D40" s="6">
-        <v>0.9</v>
+        <v>18.8</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="F40" s="6">
-        <v>0.7</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="H40" s="6">
-        <v>1.1000000000000001</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
       <c r="B41" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="D41" s="6">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F41" s="6">
-        <v>19.399999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G41">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H41" s="6">
-        <v>18</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="D42" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F42" s="6">
-        <v>19.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="G42">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H42" s="6">
-        <v>18.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D43" s="6">
         <v>20</v>
@@ -1631,274 +1635,277 @@
         <v>20</v>
       </c>
       <c r="G43">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H43" s="6">
-        <v>20</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D44" s="6">
         <v>20</v>
       </c>
       <c r="E44">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="F44" s="6">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="G44">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="H44" s="6">
-        <v>19.899999999999999</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>657</v>
+        <v>73</v>
       </c>
       <c r="D45" s="6">
-        <v>20</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E45">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="F45" s="6">
-        <v>18.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G45">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="H45" s="6">
-        <v>21.6</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
-        <v>12</v>
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C46">
-        <v>73</v>
+        <v>2041</v>
       </c>
       <c r="D46" s="6">
-        <v>2.2000000000000002</v>
+        <v>62.2</v>
       </c>
       <c r="E46">
-        <v>41</v>
+        <v>1111</v>
       </c>
       <c r="F46" s="6">
-        <v>2.2999999999999998</v>
+        <v>61</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>930</v>
       </c>
       <c r="H46" s="6">
-        <v>2.2000000000000002</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
       <c r="B47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>1239</v>
+      </c>
+      <c r="D47" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E47">
+        <v>709</v>
+      </c>
+      <c r="F47" s="6">
+        <v>39</v>
+      </c>
+      <c r="G47">
+        <v>530</v>
+      </c>
+      <c r="H47" s="6">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="C47">
-        <v>2041</v>
-      </c>
-      <c r="D47" s="6">
-        <v>62.2</v>
-      </c>
-      <c r="E47">
-        <v>1111</v>
-      </c>
-      <c r="F47" s="6">
-        <v>61</v>
-      </c>
-      <c r="G47">
-        <v>930</v>
-      </c>
-      <c r="H47" s="6">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>50</v>
+      <c r="B48" s="7">
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1239</v>
+        <v>17</v>
       </c>
       <c r="D48" s="6">
-        <v>37.799999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="E48">
-        <v>709</v>
+        <v>8</v>
       </c>
       <c r="F48" s="6">
-        <v>39</v>
+        <v>0.5</v>
       </c>
       <c r="G48">
-        <v>530</v>
+        <v>9</v>
       </c>
       <c r="H48" s="6">
-        <v>36.299999999999997</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
       <c r="B49" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>595</v>
       </c>
       <c r="D49" s="6">
-        <v>0.6</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="F49" s="6">
-        <v>0.5</v>
+        <v>20.3</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="H49" s="6">
-        <v>0.7</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>595</v>
+        <v>636</v>
       </c>
       <c r="D50" s="6">
-        <v>19.399999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="E50">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F50" s="6">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>275</v>
+      </c>
+      <c r="H50" s="6">
         <v>20.3</v>
-      </c>
-      <c r="G50">
-        <v>247</v>
-      </c>
-      <c r="H50" s="6">
-        <v>18.2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="D51" s="6">
-        <v>20.7</v>
+        <v>19.5</v>
       </c>
       <c r="E51">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="F51" s="6">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="G51">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H51" s="6">
-        <v>20.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D52" s="6">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="E52">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F52" s="6">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="G52">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H52" s="6">
-        <v>19.5</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>610</v>
+        <v>52</v>
       </c>
       <c r="D53" s="6">
-        <v>19.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E53">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="F53" s="6">
-        <v>19.8</v>
+        <v>17.3</v>
       </c>
       <c r="G53">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H53" s="6">
-        <v>19.899999999999999</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="7">
-        <v>12</v>
+      <c r="B54" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C54">
+        <v>45</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E54">
+        <v>29</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="G54">
+        <v>16</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D54" s="6">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E54">
-        <v>297</v>
-      </c>
-      <c r="F54" s="6">
-        <v>17.3</v>
-      </c>
-      <c r="G54">
-        <v>275</v>
-      </c>
-      <c r="H54" s="6">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -1920,509 +1927,483 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
       <c r="B56" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>45</v>
+        <v>2417</v>
       </c>
       <c r="D56" s="6">
-        <v>1.5</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="E56">
-        <v>29</v>
+        <v>1332</v>
       </c>
       <c r="F56" s="6">
-        <v>1.7</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>1085</v>
       </c>
       <c r="H56" s="6">
-        <v>1.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>2417</v>
+        <v>612</v>
       </c>
       <c r="D57" s="6">
-        <v>78.599999999999994</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E57">
-        <v>1332</v>
+        <v>356</v>
       </c>
       <c r="F57" s="6">
-        <v>77.599999999999994</v>
+        <v>20.7</v>
       </c>
       <c r="G57">
-        <v>1085</v>
+        <v>256</v>
       </c>
       <c r="H57" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58">
-        <v>612</v>
-      </c>
-      <c r="D58" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E58">
-        <v>356</v>
-      </c>
-      <c r="F58" s="6">
-        <v>20.7</v>
-      </c>
-      <c r="G58">
-        <v>256</v>
-      </c>
-      <c r="H58" s="6">
         <v>18.899999999999999</v>
       </c>
     </row>
+    <row r="58" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="8">
+        <v>3217</v>
+      </c>
+      <c r="D58" s="10">
+        <v>96.7</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1782</v>
+      </c>
+      <c r="F58" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1435</v>
+      </c>
+      <c r="H58" s="10">
+        <v>97</v>
+      </c>
+    </row>
     <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B59" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C59" s="8">
-        <v>3217</v>
+        <v>110</v>
       </c>
       <c r="D59" s="10">
-        <v>96.7</v>
+        <v>3.3</v>
       </c>
       <c r="E59" s="8">
-        <v>1782</v>
+        <v>66</v>
       </c>
       <c r="F59" s="10">
-        <v>96.4</v>
+        <v>3.6</v>
       </c>
       <c r="G59" s="8">
-        <v>1435</v>
+        <v>44</v>
       </c>
       <c r="H59" s="10">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="B60" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="8">
-        <v>110</v>
+        <v>3330</v>
       </c>
       <c r="D60" s="10">
-        <v>3.3</v>
+        <v>99.6</v>
       </c>
       <c r="E60" s="8">
-        <v>66</v>
+        <v>1850</v>
       </c>
       <c r="F60" s="10">
-        <v>3.6</v>
+        <v>99.6</v>
       </c>
       <c r="G60" s="8">
-        <v>44</v>
+        <v>1480</v>
       </c>
       <c r="H60" s="10">
-        <v>3</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="B61" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C61" s="8">
-        <v>3330</v>
+        <v>12</v>
       </c>
       <c r="D61" s="10">
-        <v>99.6</v>
+        <v>0.4</v>
       </c>
       <c r="E61" s="8">
-        <v>1850</v>
+        <v>7</v>
       </c>
       <c r="F61" s="10">
-        <v>99.6</v>
+        <v>0.4</v>
       </c>
       <c r="G61" s="8">
-        <v>1480</v>
+        <v>5</v>
       </c>
       <c r="H61" s="10">
-        <v>99.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="B62" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C62" s="8">
-        <v>12</v>
+        <v>3265</v>
       </c>
       <c r="D62" s="10">
-        <v>0.4</v>
+        <v>97.7</v>
       </c>
       <c r="E62" s="8">
+        <v>1811</v>
+      </c>
+      <c r="F62" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1454</v>
+      </c>
+      <c r="H62" s="10">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="8">
+        <v>77</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E63" s="8">
+        <v>46</v>
+      </c>
+      <c r="F63" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G63" s="8">
+        <v>31</v>
+      </c>
+      <c r="H63" s="10">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="9">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8">
+        <v>11</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="8">
+        <v>4</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G64" s="8">
         <v>7</v>
       </c>
-      <c r="F62" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="G62" s="8">
-        <v>5</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="8">
-        <v>3265</v>
-      </c>
-      <c r="D63" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="E63" s="8">
-        <v>1811</v>
-      </c>
-      <c r="F63" s="10">
-        <v>97.5</v>
-      </c>
-      <c r="G63" s="8">
-        <v>1454</v>
-      </c>
-      <c r="H63" s="10">
-        <v>97.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="8">
-        <v>77</v>
-      </c>
-      <c r="D64" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E64" s="8">
-        <v>46</v>
-      </c>
-      <c r="F64" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="G64" s="8">
-        <v>31</v>
-      </c>
       <c r="H64" s="10">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="B65" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="8">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D65" s="10">
-        <v>0.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E65" s="8">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F65" s="10">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="G65" s="8">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H65" s="10">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="8">
-        <v>113</v>
+        <v>430</v>
       </c>
       <c r="D66" s="10">
-        <v>4.5999999999999996</v>
+        <v>17.7</v>
       </c>
       <c r="E66" s="8">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="F66" s="10">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="G66" s="8">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="H66" s="10">
-        <v>4.8</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" s="8">
-        <v>430</v>
+        <v>862</v>
       </c>
       <c r="D67" s="10">
-        <v>17.7</v>
+        <v>35.4</v>
       </c>
       <c r="E67" s="8">
-        <v>250</v>
+        <v>479</v>
       </c>
       <c r="F67" s="10">
-        <v>18</v>
+        <v>34.4</v>
       </c>
       <c r="G67" s="8">
-        <v>180</v>
+        <v>383</v>
       </c>
       <c r="H67" s="10">
-        <v>17.2</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" s="8">
-        <v>862</v>
+        <v>593</v>
       </c>
       <c r="D68" s="10">
-        <v>35.4</v>
+        <v>24.3</v>
       </c>
       <c r="E68" s="8">
-        <v>479</v>
+        <v>336</v>
       </c>
       <c r="F68" s="10">
-        <v>34.4</v>
+        <v>24.1</v>
       </c>
       <c r="G68" s="8">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="H68" s="10">
-        <v>36.700000000000003</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9">
-        <v>5</v>
+      <c r="B69" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C69" s="8">
-        <v>593</v>
+        <v>427</v>
       </c>
       <c r="D69" s="10">
-        <v>24.3</v>
+        <v>17.5</v>
       </c>
       <c r="E69" s="8">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="F69" s="10">
-        <v>24.1</v>
+        <v>18.7</v>
       </c>
       <c r="G69" s="8">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="H69" s="10">
-        <v>24.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="B70" s="9" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C70" s="8">
-        <v>427</v>
+        <v>3202</v>
       </c>
       <c r="D70" s="10">
-        <v>17.5</v>
+        <v>95.8</v>
       </c>
       <c r="E70" s="8">
-        <v>260</v>
+        <v>1772</v>
       </c>
       <c r="F70" s="10">
-        <v>18.7</v>
+        <v>95.5</v>
       </c>
       <c r="G70" s="8">
-        <v>167</v>
+        <v>1430</v>
       </c>
       <c r="H70" s="10">
-        <v>16</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="B71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="8">
+        <v>139</v>
+      </c>
+      <c r="D71" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="E71" s="8">
+        <v>84</v>
+      </c>
+      <c r="F71" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G71" s="8">
+        <v>55</v>
+      </c>
+      <c r="H71" s="10">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="8">
-        <v>3202</v>
-      </c>
-      <c r="D71" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="E71" s="8">
-        <v>1772</v>
-      </c>
-      <c r="F71" s="10">
-        <v>95.5</v>
-      </c>
-      <c r="G71" s="8">
-        <v>1430</v>
-      </c>
-      <c r="H71" s="10">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
+      <c r="B72" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="8">
-        <v>139</v>
-      </c>
-      <c r="D72" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="E72" s="8">
-        <v>84</v>
-      </c>
-      <c r="F72" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="G72" s="8">
-        <v>55</v>
-      </c>
-      <c r="H72" s="10">
-        <v>3.7</v>
+      <c r="C72">
+        <v>3181</v>
+      </c>
+      <c r="D72" s="6">
+        <v>95.4</v>
+      </c>
+      <c r="E72">
+        <v>1824</v>
+      </c>
+      <c r="F72" s="6">
+        <v>98.5</v>
+      </c>
+      <c r="G72">
+        <v>1357</v>
+      </c>
+      <c r="H72" s="6">
+        <v>91.6</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73">
+        <v>152</v>
+      </c>
+      <c r="D73" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E73">
+        <v>28</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G73">
+        <v>124</v>
+      </c>
+      <c r="H73" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>31</v>
       </c>
-      <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73">
-        <v>3181</v>
-      </c>
-      <c r="D73" s="6">
-        <v>95.4</v>
-      </c>
-      <c r="E73">
-        <v>1824</v>
-      </c>
-      <c r="F73" s="6">
-        <v>98.5</v>
-      </c>
-      <c r="G73">
-        <v>1357</v>
-      </c>
-      <c r="H73" s="6">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>29</v>
       </c>
       <c r="C74">
-        <v>152</v>
+        <v>2877</v>
       </c>
       <c r="D74" s="6">
-        <v>4.5999999999999996</v>
+        <v>86.4</v>
       </c>
       <c r="E74">
+        <v>1745</v>
+      </c>
+      <c r="F74" s="6">
+        <v>94.1</v>
+      </c>
+      <c r="G74">
+        <v>1132</v>
+      </c>
+      <c r="H74" s="6">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G74">
-        <v>124</v>
-      </c>
-      <c r="H74" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" t="s">
-        <v>30</v>
-      </c>
       <c r="C75">
-        <v>2877</v>
+        <v>452</v>
       </c>
       <c r="D75" s="6">
-        <v>86.4</v>
+        <v>13.6</v>
       </c>
       <c r="E75">
-        <v>1745</v>
+        <v>109</v>
       </c>
       <c r="F75" s="6">
-        <v>94.1</v>
+        <v>5.9</v>
       </c>
       <c r="G75">
-        <v>1132</v>
+        <v>343</v>
       </c>
       <c r="H75" s="6">
-        <v>76.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76">
-        <v>452</v>
-      </c>
-      <c r="D76" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="E76">
-        <v>109</v>
-      </c>
-      <c r="F76" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="G76">
-        <v>343</v>
-      </c>
-      <c r="H76" s="6">
         <v>23.3</v>
       </c>
     </row>
@@ -2438,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BCDB-2B54-457C-92A9-DEB02B8D5C41}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,138 +2478,184 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>15.57</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1.58</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>15.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>1.55</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>15.7</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>1.61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6">
         <v>19.13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>3.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>19.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>4.72</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>19</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>2.92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6">
         <v>0.1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>1.34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>0.03</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.41399999999999998</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>0.19</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>1.96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6">
         <v>0.8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>5.72</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>3.18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>1.54</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>7.76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6">
         <v>37.409999999999997</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>12.6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>13.2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>36.9</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>11.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6">
         <v>44.9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>11.51</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>45.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>11.9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>44.7</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>11.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6">
+        <v>11.77</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="D10" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="F10" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6">
+        <v>13.13</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1035" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F20FEB00-C69E-4977-AF07-5102DA3878F4}"/>
+  <xr:revisionPtr revIDLastSave="1273" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A857528-6690-46F9-BB8D-1472422B3261}"/>
   <bookViews>
-    <workbookView xWindow="21030" yWindow="7305" windowWidth="14310" windowHeight="8640" activeTab="1" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="14835" yWindow="1050" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
+    <sheet name="CFA" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="87">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -220,6 +221,81 @@
   </si>
   <si>
     <t>Highest Grade Completed - Capped</t>
+  </si>
+  <si>
+    <t>Ever been Suspended</t>
+  </si>
+  <si>
+    <t>Grade of Last Suspension</t>
+  </si>
+  <si>
+    <t>Middle School Suspension</t>
+  </si>
+  <si>
+    <t>Elementary School Suspension</t>
+  </si>
+  <si>
+    <t>High School Suspension</t>
+  </si>
+  <si>
+    <t>Ever been Expelled</t>
+  </si>
+  <si>
+    <t>Vars Used</t>
+  </si>
+  <si>
+    <t>Academic Performance</t>
+  </si>
+  <si>
+    <t>APEnglish APMath APHistory APScience</t>
+  </si>
+  <si>
+    <t>Obs. Used</t>
+  </si>
+  <si>
+    <t>Tucker-Lewis Index</t>
+  </si>
+  <si>
+    <t>RMSEA</t>
+  </si>
+  <si>
+    <t>p-value for RMSEA</t>
+  </si>
+  <si>
+    <t>Any Loadings &gt; 1?</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Confirmatory Factor Analysis</t>
+  </si>
+  <si>
+    <t>Aggressive Delinquency</t>
+  </si>
+  <si>
+    <t>ADPhysicalFight ADKnifeGun ADShootStab ADWeaponSchool</t>
+  </si>
+  <si>
+    <t>Non-aggressive Delinquency</t>
+  </si>
+  <si>
+    <t>NADLying NADShoplift NADStealLess NADStealMore</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Attachment to Parents</t>
+  </si>
+  <si>
+    <t>AtPCloseMother AtPCloseFather AtPMotherCare AtPFatherCare</t>
+  </si>
+  <si>
+    <t>Attachment to Delinquent Peers</t>
+  </si>
+  <si>
+    <t>AtDPCigs AtDPAlcohol AtDPWeed</t>
   </si>
 </sst>
 </file>
@@ -230,7 +306,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +322,31 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -273,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -289,13 +390,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,18 +745,18 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2309,101 +2423,346 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="8">
+        <v>2465</v>
+      </c>
+      <c r="D72" s="10">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1508</v>
+      </c>
+      <c r="F72" s="10">
+        <v>81.3</v>
+      </c>
+      <c r="G72" s="8">
+        <v>957</v>
+      </c>
+      <c r="H72" s="10">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="8">
+        <v>872</v>
+      </c>
+      <c r="D73" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="E73" s="8">
+        <v>347</v>
+      </c>
+      <c r="F73" s="10">
+        <v>18.7</v>
+      </c>
+      <c r="G73" s="8">
+        <v>525</v>
+      </c>
+      <c r="H73" s="10">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="8">
+        <v>3287</v>
+      </c>
+      <c r="D74" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1836</v>
+      </c>
+      <c r="F74" s="10">
+        <v>98.9</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1451</v>
+      </c>
+      <c r="H74" s="10">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="8">
+        <v>55</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="E75" s="8">
+        <v>21</v>
+      </c>
+      <c r="F75" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G75" s="8">
+        <v>34</v>
+      </c>
+      <c r="H75" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="8">
+        <v>2926</v>
+      </c>
+      <c r="D76" s="10">
+        <v>87.6</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1684</v>
+      </c>
+      <c r="F76" s="10">
+        <v>90.7</v>
+      </c>
+      <c r="G76" s="8">
+        <v>1242</v>
+      </c>
+      <c r="H76" s="10">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="8">
+        <v>416</v>
+      </c>
+      <c r="D77" s="10">
+        <v>12.4</v>
+      </c>
+      <c r="E77" s="8">
+        <v>173</v>
+      </c>
+      <c r="F77" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G77" s="8">
+        <v>243</v>
+      </c>
+      <c r="H77" s="10">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="8">
+        <v>2951</v>
+      </c>
+      <c r="D78" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1709</v>
+      </c>
+      <c r="F78" s="10">
+        <v>92</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1242</v>
+      </c>
+      <c r="H78" s="10">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="8">
+        <v>391</v>
+      </c>
+      <c r="D79" s="10">
+        <v>11.7</v>
+      </c>
+      <c r="E79" s="8">
+        <v>148</v>
+      </c>
+      <c r="F79" s="10">
+        <v>8</v>
+      </c>
+      <c r="G79" s="8">
+        <v>243</v>
+      </c>
+      <c r="H79" s="10">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="8">
+        <v>3207</v>
+      </c>
+      <c r="D80" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1808</v>
+      </c>
+      <c r="F80" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1399</v>
+      </c>
+      <c r="H80" s="10">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="8">
+        <v>130</v>
+      </c>
+      <c r="D81" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="E81" s="8">
+        <v>46</v>
+      </c>
+      <c r="F81" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G81" s="8">
+        <v>84</v>
+      </c>
+      <c r="H81" s="10">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>30</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B82" t="s">
         <v>29</v>
       </c>
-      <c r="C72">
+      <c r="C82">
         <v>3181</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D82" s="6">
         <v>95.4</v>
       </c>
-      <c r="E72">
+      <c r="E82">
         <v>1824</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F82" s="6">
         <v>98.5</v>
       </c>
-      <c r="G72">
+      <c r="G82">
         <v>1357</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H82" s="6">
         <v>91.6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>28</v>
       </c>
-      <c r="C73">
+      <c r="C83">
         <v>152</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D83" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E73">
+      <c r="E83">
         <v>28</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F83" s="6">
         <v>1.5</v>
       </c>
-      <c r="G73">
+      <c r="G83">
         <v>124</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H83" s="6">
         <v>8.4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B84" t="s">
         <v>29</v>
       </c>
-      <c r="C74">
+      <c r="C84">
         <v>2877</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D84" s="6">
         <v>86.4</v>
       </c>
-      <c r="E74">
+      <c r="E84">
         <v>1745</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F84" s="6">
         <v>94.1</v>
       </c>
-      <c r="G74">
+      <c r="G84">
         <v>1132</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H84" s="6">
         <v>76.7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>28</v>
       </c>
-      <c r="C75">
+      <c r="C85">
         <v>452</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D85" s="6">
         <v>13.6</v>
       </c>
-      <c r="E75">
+      <c r="E85">
         <v>109</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F85" s="6">
         <v>5.9</v>
       </c>
-      <c r="G75">
+      <c r="G85">
         <v>343</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H85" s="6">
         <v>23.3</v>
       </c>
     </row>
@@ -2419,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2BCDB-2B54-457C-92A9-DEB02B8D5C41}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,18 +2797,18 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2530,7 +2889,7 @@
       <c r="C6" s="6">
         <v>1.34</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>0.03</v>
       </c>
       <c r="E6" s="6">
@@ -2656,6 +3015,52 @@
       </c>
       <c r="G11" s="6">
         <v>1.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="6">
+        <v>11.57</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.96</v>
+      </c>
+      <c r="D13" s="6">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.89</v>
+      </c>
+      <c r="F13" s="6">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2.97</v>
       </c>
     </row>
   </sheetData>
@@ -2666,4 +3071,354 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C2F11A-EE1B-41A8-995B-F8487C31C158}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A32:E32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1273" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A857528-6690-46F9-BB8D-1472422B3261}"/>
+  <xr:revisionPtr revIDLastSave="1305" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5716EC8-02A0-4A6D-B4AD-8EABBDBE04DC}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="1050" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="14310" windowHeight="8640" activeTab="3" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
     <sheet name="CFA" sheetId="5" r:id="rId3"/>
+    <sheet name="Workspace" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -296,6 +297,75 @@
   </si>
   <si>
     <t>AtDPCigs AtDPAlcohol AtDPWeed</t>
+  </si>
+  <si>
+    <t>Juvenile Victim</t>
+  </si>
+  <si>
+    <t>Adult Victim</t>
+  </si>
+  <si>
+    <t>JH1FV3</t>
+  </si>
+  <si>
+    <t>AH3DS18D</t>
+  </si>
+  <si>
+    <t>JH1FV4</t>
+  </si>
+  <si>
+    <t>AH3DS18E</t>
+  </si>
+  <si>
+    <t>JH2FV3</t>
+  </si>
+  <si>
+    <t>AH4DS16</t>
+  </si>
+  <si>
+    <t>JH2FV4</t>
+  </si>
+  <si>
+    <t>AH3DS18F</t>
+  </si>
+  <si>
+    <t>JH1FV6</t>
+  </si>
+  <si>
+    <t>AH3DS18G</t>
+  </si>
+  <si>
+    <t>JH2FV5</t>
+  </si>
+  <si>
+    <t>AH4DS18</t>
+  </si>
+  <si>
+    <t>JH1FV2</t>
+  </si>
+  <si>
+    <t>JH2FV2</t>
+  </si>
+  <si>
+    <t>AH3DS18B</t>
+  </si>
+  <si>
+    <t>AH3DS18C</t>
+  </si>
+  <si>
+    <t>AH4DS15</t>
+  </si>
+  <si>
+    <t>JH1FV1</t>
+  </si>
+  <si>
+    <t>JH2FV1</t>
+  </si>
+  <si>
+    <t>AH3DS18A</t>
+  </si>
+  <si>
+    <t>AH4DS14</t>
   </si>
 </sst>
 </file>
@@ -391,6 +461,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,10 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -745,18 +815,18 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2781,7 +2851,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,18 +2867,18 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3078,7 +3148,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B24" sqref="B24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,29 +3169,29 @@
       <c r="B2" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B7">
@@ -3129,7 +3199,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B8">
@@ -3137,7 +3207,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B9">
@@ -3145,7 +3215,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B10">
@@ -3153,40 +3223,40 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B16">
@@ -3194,7 +3264,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B17">
@@ -3202,7 +3272,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B18">
@@ -3210,46 +3280,46 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B25">
@@ -3257,7 +3327,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B26">
@@ -3265,7 +3335,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B27">
@@ -3273,32 +3343,32 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B33" t="s">
@@ -3306,7 +3376,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B34">
@@ -3314,7 +3384,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B35">
@@ -3322,7 +3392,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B36">
@@ -3330,43 +3400,43 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B43">
@@ -3374,7 +3444,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B44">
@@ -3382,7 +3452,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B45">
@@ -3390,7 +3460,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B46">
@@ -3398,10 +3468,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3421,4 +3491,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C641D63-AE0D-47A0-AE77-3B6D54746026}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1305" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5716EC8-02A0-4A6D-B4AD-8EABBDBE04DC}"/>
+  <xr:revisionPtr revIDLastSave="1324" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F807CBB0-BE2C-4893-ABB0-8BB1E72220B9}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="14310" windowHeight="8640" activeTab="3" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
     <sheet name="CFA" sheetId="5" r:id="rId3"/>
-    <sheet name="Workspace" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -305,67 +304,7 @@
     <t>Adult Victim</t>
   </si>
   <si>
-    <t>JH1FV3</t>
-  </si>
-  <si>
-    <t>AH3DS18D</t>
-  </si>
-  <si>
-    <t>JH1FV4</t>
-  </si>
-  <si>
-    <t>AH3DS18E</t>
-  </si>
-  <si>
-    <t>JH2FV3</t>
-  </si>
-  <si>
-    <t>AH4DS16</t>
-  </si>
-  <si>
-    <t>JH2FV4</t>
-  </si>
-  <si>
-    <t>AH3DS18F</t>
-  </si>
-  <si>
-    <t>JH1FV6</t>
-  </si>
-  <si>
-    <t>AH3DS18G</t>
-  </si>
-  <si>
-    <t>JH2FV5</t>
-  </si>
-  <si>
-    <t>AH4DS18</t>
-  </si>
-  <si>
-    <t>JH1FV2</t>
-  </si>
-  <si>
-    <t>JH2FV2</t>
-  </si>
-  <si>
-    <t>AH3DS18B</t>
-  </si>
-  <si>
-    <t>AH3DS18C</t>
-  </si>
-  <si>
-    <t>AH4DS15</t>
-  </si>
-  <si>
-    <t>JH1FV1</t>
-  </si>
-  <si>
-    <t>JH2FV1</t>
-  </si>
-  <si>
-    <t>AH3DS18A</t>
-  </si>
-  <si>
-    <t>AH4DS14</t>
+    <t>Victim</t>
   </si>
 </sst>
 </file>
@@ -424,12 +363,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -480,6 +425,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,101 +2688,158 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>30</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B88" t="s">
         <v>29</v>
       </c>
-      <c r="C82">
+      <c r="C88">
         <v>3181</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D88" s="6">
         <v>95.4</v>
       </c>
-      <c r="E82">
+      <c r="E88">
         <v>1824</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F88" s="6">
         <v>98.5</v>
       </c>
-      <c r="G82">
+      <c r="G88">
         <v>1357</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H88" s="6">
         <v>91.6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>28</v>
       </c>
-      <c r="C83">
+      <c r="C89">
         <v>152</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D89" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E83">
+      <c r="E89">
         <v>28</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F89" s="6">
         <v>1.5</v>
       </c>
-      <c r="G83">
+      <c r="G89">
         <v>124</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H89" s="6">
         <v>8.4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B90" t="s">
         <v>29</v>
       </c>
-      <c r="C84">
+      <c r="C90">
         <v>2877</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D90" s="6">
         <v>86.4</v>
       </c>
-      <c r="E84">
+      <c r="E90">
         <v>1745</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F90" s="6">
         <v>94.1</v>
       </c>
-      <c r="G84">
+      <c r="G90">
         <v>1132</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H90" s="6">
         <v>76.7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>28</v>
       </c>
-      <c r="C85">
+      <c r="C91">
         <v>452</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D91" s="6">
         <v>13.6</v>
       </c>
-      <c r="E85">
+      <c r="E91">
         <v>109</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F91" s="6">
         <v>5.9</v>
       </c>
-      <c r="G85">
+      <c r="G91">
         <v>343</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H91" s="6">
         <v>23.3</v>
       </c>
     </row>
@@ -3491,119 +3498,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C641D63-AE0D-47A0-AE77-3B6D54746026}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1324" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F807CBB0-BE2C-4893-ABB0-8BB1E72220B9}"/>
+  <xr:revisionPtr revIDLastSave="1361" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6DFE535-9ED4-412B-A2AB-957AB6E56E5A}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -363,18 +363,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -425,11 +419,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,62 +2677,152 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="H82" s="21"/>
-    </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="20" t="s">
+      <c r="C82" s="8">
+        <v>2372</v>
+      </c>
+      <c r="D82" s="10">
+        <v>71</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1466</v>
+      </c>
+      <c r="F82" s="10">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G82" s="8">
+        <v>906</v>
+      </c>
+      <c r="H82" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="H83" s="21"/>
-    </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="C83" s="8">
+        <v>970</v>
+      </c>
+      <c r="D83" s="10">
+        <v>29</v>
+      </c>
+      <c r="E83" s="8">
+        <v>391</v>
+      </c>
+      <c r="F83" s="10">
+        <v>21.1</v>
+      </c>
+      <c r="G83" s="8">
+        <v>579</v>
+      </c>
+      <c r="H83" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="H84" s="21"/>
-    </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
+      <c r="C84" s="8">
+        <v>2737</v>
+      </c>
+      <c r="D84" s="10">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E84" s="8">
+        <v>1637</v>
+      </c>
+      <c r="F84" s="10">
+        <v>88.2</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1100</v>
+      </c>
+      <c r="H84" s="10">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="H85" s="21"/>
-    </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="C85" s="8">
+        <v>605</v>
+      </c>
+      <c r="D85" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E85" s="8">
+        <v>220</v>
+      </c>
+      <c r="F85" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G85" s="8">
+        <v>385</v>
+      </c>
+      <c r="H85" s="10">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="H86" s="21"/>
-    </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="20" t="s">
+      <c r="C86" s="8">
+        <v>2090</v>
+      </c>
+      <c r="D86" s="10">
+        <v>62.5</v>
+      </c>
+      <c r="E86" s="8">
+        <v>1332</v>
+      </c>
+      <c r="F86" s="10">
+        <v>71.7</v>
+      </c>
+      <c r="G86" s="8">
+        <v>758</v>
+      </c>
+      <c r="H86" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="H87" s="21"/>
+      <c r="C87" s="8">
+        <v>1252</v>
+      </c>
+      <c r="D87" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="E87" s="8">
+        <v>525</v>
+      </c>
+      <c r="F87" s="10">
+        <v>28.3</v>
+      </c>
+      <c r="G87" s="8">
+        <v>727</v>
+      </c>
+      <c r="H87" s="10">
+        <v>49</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -2858,7 +2937,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C2F11A-EE1B-41A8-995B-F8487C31C158}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1361" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6DFE535-9ED4-412B-A2AB-957AB6E56E5A}"/>
+  <xr:revisionPtr revIDLastSave="1377" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8365AFC-EAEE-42B0-A069-76646CF6FF15}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="14310" windowHeight="8640" activeTab="2" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="11010" yWindow="4020" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Victim</t>
+  </si>
+  <si>
+    <t>Poverty</t>
   </si>
 </sst>
 </file>
@@ -733,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,79 +2827,79 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C88">
-        <v>3181</v>
-      </c>
-      <c r="D88" s="6">
-        <v>95.4</v>
-      </c>
-      <c r="E88">
-        <v>1824</v>
-      </c>
-      <c r="F88" s="6">
-        <v>98.5</v>
-      </c>
-      <c r="G88">
-        <v>1357</v>
-      </c>
-      <c r="H88" s="6">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="C88" s="8">
+        <v>2425</v>
+      </c>
+      <c r="D88" s="10">
+        <v>83</v>
+      </c>
+      <c r="E88" s="8">
+        <v>1332</v>
+      </c>
+      <c r="F88" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="G88" s="8">
+        <v>1093</v>
+      </c>
+      <c r="H88" s="10">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C89">
-        <v>152</v>
-      </c>
-      <c r="D89" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E89">
-        <v>28</v>
-      </c>
-      <c r="F89" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G89">
-        <v>124</v>
-      </c>
-      <c r="H89" s="6">
-        <v>8.4</v>
+      <c r="C89" s="8">
+        <v>495</v>
+      </c>
+      <c r="D89" s="10">
+        <v>17</v>
+      </c>
+      <c r="E89" s="8">
+        <v>281</v>
+      </c>
+      <c r="F89" s="10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G89" s="8">
+        <v>214</v>
+      </c>
+      <c r="H89" s="10">
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
       </c>
       <c r="C90">
-        <v>2877</v>
+        <v>3181</v>
       </c>
       <c r="D90" s="6">
-        <v>86.4</v>
+        <v>95.4</v>
       </c>
       <c r="E90">
-        <v>1745</v>
+        <v>1824</v>
       </c>
       <c r="F90" s="6">
-        <v>94.1</v>
+        <v>98.5</v>
       </c>
       <c r="G90">
-        <v>1132</v>
+        <v>1357</v>
       </c>
       <c r="H90" s="6">
-        <v>76.7</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2904,21 +2907,70 @@
         <v>28</v>
       </c>
       <c r="C91">
+        <v>152</v>
+      </c>
+      <c r="D91" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E91">
+        <v>28</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G91">
+        <v>124</v>
+      </c>
+      <c r="H91" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <v>2877</v>
+      </c>
+      <c r="D92" s="6">
+        <v>86.4</v>
+      </c>
+      <c r="E92">
+        <v>1745</v>
+      </c>
+      <c r="F92" s="6">
+        <v>94.1</v>
+      </c>
+      <c r="G92">
+        <v>1132</v>
+      </c>
+      <c r="H92" s="6">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93">
         <v>452</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D93" s="6">
         <v>13.6</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>109</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F93" s="6">
         <v>5.9</v>
       </c>
-      <c r="G91">
+      <c r="G93">
         <v>343</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H93" s="6">
         <v>23.3</v>
       </c>
     </row>
@@ -3233,7 +3285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C2F11A-EE1B-41A8-995B-F8487C31C158}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/ADD Health/Table.xlsx
+++ b/ADD Health/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1377" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8365AFC-EAEE-42B0-A069-76646CF6FF15}"/>
+  <xr:revisionPtr revIDLastSave="1389" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3C70188-1D6F-467E-BFF7-28A223BEFCAC}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="4020" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="20370" yWindow="2505" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,22 +1020,22 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1912</v>
+        <v>2599</v>
       </c>
       <c r="D13" s="6">
-        <v>76.400000000000006</v>
+        <v>77.8</v>
       </c>
       <c r="E13">
-        <v>1048</v>
+        <v>1412</v>
       </c>
       <c r="F13" s="6">
-        <v>73.8</v>
+        <v>76</v>
       </c>
       <c r="G13">
-        <v>864</v>
+        <v>1187</v>
       </c>
       <c r="H13" s="6">
-        <v>79.8</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,22 +1043,22 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>592</v>
+        <v>743</v>
       </c>
       <c r="D14" s="6">
-        <v>23.6</v>
+        <v>22.2</v>
       </c>
       <c r="E14">
-        <v>373</v>
+        <v>445</v>
       </c>
       <c r="F14" s="6">
-        <v>26.2</v>
+        <v>24</v>
       </c>
       <c r="G14">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="H14" s="6">
-        <v>20.2</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
